--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1941101688311493</v>
+        <v>-0.3950010431191253</v>
       </c>
       <c r="C2">
-        <v>0.6298384940727234</v>
+        <v>2.046336902374465</v>
       </c>
       <c r="D2">
-        <v>0.5625300394321165</v>
+        <v>5.798338224185904</v>
       </c>
       <c r="E2">
-        <v>0.7500200260207167</v>
+        <v>2.407973883617907</v>
       </c>
       <c r="F2">
-        <v>0.7518141108749212</v>
+        <v>2.46502260251285</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1296615460645502</v>
+        <v>-0.05523834182961166</v>
       </c>
       <c r="C3">
-        <v>0.6198966616738055</v>
+        <v>1.856073131361144</v>
       </c>
       <c r="D3">
-        <v>0.5787734953992667</v>
+        <v>4.905587478437071</v>
       </c>
       <c r="E3">
-        <v>0.7607716447129629</v>
+        <v>2.214856085265377</v>
       </c>
       <c r="F3">
-        <v>0.7802509171909821</v>
+        <v>2.304578245080446</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1713780703379723</v>
+        <v>-0.290471866325093</v>
       </c>
       <c r="C4">
-        <v>0.6195634324127871</v>
+        <v>1.739315905158552</v>
       </c>
       <c r="D4">
-        <v>0.5965840772771452</v>
+        <v>4.447440393765628</v>
       </c>
       <c r="E4">
-        <v>0.7723885533053589</v>
+        <v>2.108895538846253</v>
       </c>
       <c r="F4">
-        <v>0.7866247581461014</v>
+        <v>2.181675708417124</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1973902383725667</v>
+        <v>-0.374175682380495</v>
       </c>
       <c r="C5">
-        <v>0.5854023832636905</v>
+        <v>1.675777845656498</v>
       </c>
       <c r="D5">
-        <v>0.4645967064138949</v>
+        <v>3.969686682774517</v>
       </c>
       <c r="E5">
-        <v>0.6816133114999258</v>
+        <v>1.992407258261854</v>
       </c>
       <c r="F5">
-        <v>0.6842493553011416</v>
+        <v>2.052473426292913</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3550137442413294</v>
+        <v>-0.589146841836848</v>
       </c>
       <c r="C6">
-        <v>0.4775954486675624</v>
+        <v>1.539691385723428</v>
       </c>
       <c r="D6">
-        <v>0.3497674648333174</v>
+        <v>3.478629428342508</v>
       </c>
       <c r="E6">
-        <v>0.5914114175709811</v>
+        <v>1.865108422677488</v>
       </c>
       <c r="F6">
-        <v>0.4985899074535319</v>
+        <v>1.865337451477517</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4564414327708519</v>
+        <v>-0.1732891586448268</v>
       </c>
       <c r="C7">
-        <v>0.5482481156005824</v>
+        <v>1.168271714243534</v>
       </c>
       <c r="D7">
-        <v>0.4447074851353075</v>
+        <v>2.179932902258912</v>
       </c>
       <c r="E7">
-        <v>0.6668639180037464</v>
+        <v>1.476459583686229</v>
       </c>
       <c r="F7">
-        <v>0.525131876309465</v>
+        <v>1.555198296351454</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.423010068188913</v>
+        <v>-0.2018953961280825</v>
       </c>
       <c r="C8">
-        <v>0.4370164275737121</v>
+        <v>1.273161211529873</v>
       </c>
       <c r="D8">
-        <v>0.2810511293760771</v>
+        <v>2.752380755634883</v>
       </c>
       <c r="E8">
-        <v>0.5301425557112701</v>
+        <v>1.659030064716997</v>
       </c>
       <c r="F8">
-        <v>0.3689871029126237</v>
+        <v>1.803868843787874</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2387894107819463</v>
+        <v>1.036650915497801</v>
       </c>
       <c r="C9">
-        <v>0.2387894107819463</v>
+        <v>1.036650915497801</v>
       </c>
       <c r="D9">
-        <v>0.05702038270158907</v>
+        <v>1.534553857341397</v>
       </c>
       <c r="E9">
-        <v>0.2387894107819463</v>
+        <v>1.238771107727895</v>
+      </c>
+      <c r="F9">
+        <v>0.8305799811628327</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.1948090203170254</v>
+      </c>
+      <c r="C10">
+        <v>0.1948090203170254</v>
+      </c>
+      <c r="D10">
+        <v>0.03795055439687921</v>
+      </c>
+      <c r="E10">
+        <v>0.1948090203170254</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.3950010431191253</v>
+        <v>0.1648366424899244</v>
       </c>
       <c r="C2">
-        <v>2.046336902374465</v>
+        <v>0.6565107402614302</v>
       </c>
       <c r="D2">
-        <v>5.798338224185904</v>
+        <v>0.6208915960224134</v>
       </c>
       <c r="E2">
-        <v>2.407973883617907</v>
+        <v>0.7879667480436046</v>
       </c>
       <c r="F2">
-        <v>2.46502260251285</v>
+        <v>0.7996194615330313</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05523834182961166</v>
+        <v>0.06925299554247144</v>
       </c>
       <c r="C3">
-        <v>1.856073131361144</v>
+        <v>0.6317528524474937</v>
       </c>
       <c r="D3">
-        <v>4.905587478437071</v>
+        <v>0.5154239904830427</v>
       </c>
       <c r="E3">
-        <v>2.214856085265377</v>
+        <v>0.7179303521115699</v>
       </c>
       <c r="F3">
-        <v>2.304578245080446</v>
+        <v>0.7437609478291553</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.290471866325093</v>
+        <v>0.1042866910554764</v>
       </c>
       <c r="C4">
-        <v>1.739315905158552</v>
+        <v>0.5871660518276492</v>
       </c>
       <c r="D4">
-        <v>4.447440393765628</v>
+        <v>0.4576314133407699</v>
       </c>
       <c r="E4">
-        <v>2.108895538846253</v>
+        <v>0.6764845994852875</v>
       </c>
       <c r="F4">
-        <v>2.181675708417124</v>
+        <v>0.6981187964102095</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.374175682380495</v>
+        <v>0.1411991018086509</v>
       </c>
       <c r="C5">
-        <v>1.675777845656498</v>
+        <v>0.5954485264947712</v>
       </c>
       <c r="D5">
-        <v>3.969686682774517</v>
+        <v>0.500182751991249</v>
       </c>
       <c r="E5">
-        <v>1.992407258261854</v>
+        <v>0.7072359945529136</v>
       </c>
       <c r="F5">
-        <v>2.052473426292913</v>
+        <v>0.7268219329406943</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.589146841836848</v>
+        <v>0.3268981278322622</v>
       </c>
       <c r="C6">
-        <v>1.539691385723428</v>
+        <v>0.6566970789475719</v>
       </c>
       <c r="D6">
-        <v>3.478629428342508</v>
+        <v>0.6666380539392567</v>
       </c>
       <c r="E6">
-        <v>1.865108422677488</v>
+        <v>0.8164790590941428</v>
       </c>
       <c r="F6">
-        <v>1.865337451477517</v>
+        <v>0.7886526259380041</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1732891586448268</v>
+        <v>0.2872108118487342</v>
       </c>
       <c r="C7">
-        <v>1.168271714243534</v>
+        <v>0.7140200429738547</v>
       </c>
       <c r="D7">
-        <v>2.179932902258912</v>
+        <v>0.7624163934427893</v>
       </c>
       <c r="E7">
-        <v>1.476459583686229</v>
+        <v>0.8731645855408872</v>
       </c>
       <c r="F7">
-        <v>1.555198296351454</v>
+        <v>0.8745954126766147</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2018953961280825</v>
+        <v>0.2887732378318851</v>
       </c>
       <c r="C8">
-        <v>1.273161211529873</v>
+        <v>0.6550352748098781</v>
       </c>
       <c r="D8">
-        <v>2.752380755634883</v>
+        <v>0.6159387406405581</v>
       </c>
       <c r="E8">
-        <v>1.659030064716997</v>
+        <v>0.7848176480180336</v>
       </c>
       <c r="F8">
-        <v>1.803868843787874</v>
+        <v>0.7994113517477577</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1.036650915497801</v>
+        <v>-0.05480200069631858</v>
       </c>
       <c r="C9">
-        <v>1.036650915497801</v>
+        <v>0.1889080360497501</v>
       </c>
       <c r="D9">
-        <v>1.534553857341397</v>
+        <v>0.05129867587295883</v>
       </c>
       <c r="E9">
-        <v>1.238771107727895</v>
+        <v>0.2264921099574085</v>
       </c>
       <c r="F9">
-        <v>0.8305799811628327</v>
+        <v>0.2691526052055958</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1948090203170254</v>
+        <v>-0.1770340777201527</v>
       </c>
       <c r="C10">
-        <v>0.1948090203170254</v>
+        <v>0.1770340777201527</v>
       </c>
       <c r="D10">
-        <v>0.03795055439687921</v>
+        <v>0.03134106467422507</v>
       </c>
       <c r="E10">
-        <v>0.1948090203170254</v>
+        <v>0.1770340777201527</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1648366424899244</v>
+        <v>-0.02074140170511275</v>
       </c>
       <c r="C2">
-        <v>0.6565107402614302</v>
+        <v>1.447200151776814</v>
       </c>
       <c r="D2">
-        <v>0.6208915960224134</v>
+        <v>4.044434787740455</v>
       </c>
       <c r="E2">
-        <v>0.7879667480436046</v>
+        <v>2.011078016323697</v>
       </c>
       <c r="F2">
-        <v>0.7996194615330313</v>
+        <v>2.030981209572279</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06925299554247144</v>
+        <v>0.3375535848015695</v>
       </c>
       <c r="C3">
-        <v>0.6317528524474937</v>
+        <v>1.320417681676975</v>
       </c>
       <c r="D3">
-        <v>0.5154239904830427</v>
+        <v>3.736644118779018</v>
       </c>
       <c r="E3">
-        <v>0.7179303521115699</v>
+        <v>1.93304012342709</v>
       </c>
       <c r="F3">
-        <v>0.7437609478291553</v>
+        <v>1.922663356868149</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1042866910554764</v>
+        <v>0.09841972257903492</v>
       </c>
       <c r="C4">
-        <v>0.5871660518276492</v>
+        <v>1.321951009708453</v>
       </c>
       <c r="D4">
-        <v>0.4576314133407699</v>
+        <v>3.706477144602156</v>
       </c>
       <c r="E4">
-        <v>0.6764845994852875</v>
+        <v>1.925221323537155</v>
       </c>
       <c r="F4">
-        <v>0.6981187964102095</v>
+        <v>1.942628934146926</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1411991018086509</v>
+        <v>0.3286888119229458</v>
       </c>
       <c r="C5">
-        <v>0.5954485264947712</v>
+        <v>1.355285765321783</v>
       </c>
       <c r="D5">
-        <v>0.500182751991249</v>
+        <v>3.906105706609585</v>
       </c>
       <c r="E5">
-        <v>0.7072359945529136</v>
+        <v>1.976387033606926</v>
       </c>
       <c r="F5">
-        <v>0.7268219329406943</v>
+        <v>1.969487079966377</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3268981278322622</v>
+        <v>0.1758242421875162</v>
       </c>
       <c r="C6">
-        <v>0.6566970789475719</v>
+        <v>1.38590038373524</v>
       </c>
       <c r="D6">
-        <v>0.6666380539392567</v>
+        <v>4.013282287792838</v>
       </c>
       <c r="E6">
-        <v>0.8164790590941428</v>
+        <v>2.003317819965878</v>
       </c>
       <c r="F6">
-        <v>0.7886526259380041</v>
+        <v>2.01716170490405</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2872108118487342</v>
+        <v>0.3886596252776647</v>
       </c>
       <c r="C7">
-        <v>0.7140200429738547</v>
+        <v>1.341425932669102</v>
       </c>
       <c r="D7">
-        <v>0.7624163934427893</v>
+        <v>3.575002999449235</v>
       </c>
       <c r="E7">
-        <v>0.8731645855408872</v>
+        <v>1.890767833301919</v>
       </c>
       <c r="F7">
-        <v>0.8745954126766147</v>
+        <v>1.870837887007969</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2887732378318851</v>
+        <v>0.1263763876690497</v>
       </c>
       <c r="C8">
-        <v>0.6550352748098781</v>
+        <v>1.411360266901308</v>
       </c>
       <c r="D8">
-        <v>0.6159387406405581</v>
+        <v>4.034073368543205</v>
       </c>
       <c r="E8">
-        <v>0.7848176480180336</v>
+        <v>2.00850027845236</v>
       </c>
       <c r="F8">
-        <v>0.7994113517477577</v>
+        <v>2.027171153542608</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05480200069631858</v>
+        <v>0.4927478854388472</v>
       </c>
       <c r="C9">
-        <v>0.1889080360497501</v>
+        <v>1.400784718790886</v>
       </c>
       <c r="D9">
-        <v>0.05129867587295883</v>
+        <v>4.048194332731589</v>
       </c>
       <c r="E9">
-        <v>0.2264921099574085</v>
+        <v>2.012012508095213</v>
       </c>
       <c r="F9">
-        <v>0.2691526052055958</v>
+        <v>1.973294551155114</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1770340777201527</v>
+        <v>0.2097999035901463</v>
       </c>
       <c r="C10">
-        <v>0.1770340777201527</v>
+        <v>1.453401524484553</v>
       </c>
       <c r="D10">
-        <v>0.03134106467422507</v>
+        <v>3.844298923870199</v>
       </c>
       <c r="E10">
-        <v>0.1770340777201527</v>
+        <v>1.960688380102815</v>
+      </c>
+      <c r="F10">
+        <v>1.97250243373573</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.6126507335481286</v>
+      </c>
+      <c r="C11">
+        <v>1.379826743076134</v>
+      </c>
+      <c r="D11">
+        <v>3.871268613803817</v>
+      </c>
+      <c r="E11">
+        <v>1.967553967189672</v>
+      </c>
+      <c r="F11">
+        <v>1.892404349385141</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02074140170511275</v>
+        <v>0.3349892545614097</v>
       </c>
       <c r="C2">
-        <v>1.447200151776814</v>
+        <v>1.605491820351044</v>
       </c>
       <c r="D2">
-        <v>4.044434787740455</v>
+        <v>4.859283619025187</v>
       </c>
       <c r="E2">
-        <v>2.011078016323697</v>
+        <v>2.20437828401234</v>
       </c>
       <c r="F2">
-        <v>2.030981209572279</v>
+        <v>2.205186593348543</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3375535848015695</v>
+        <v>-0.04710882026988346</v>
       </c>
       <c r="C3">
-        <v>1.320417681676975</v>
+        <v>1.657196964163514</v>
       </c>
       <c r="D3">
-        <v>3.736644118779018</v>
+        <v>4.932318376681804</v>
       </c>
       <c r="E3">
-        <v>1.93304012342709</v>
+        <v>2.220882341926696</v>
       </c>
       <c r="F3">
-        <v>1.922663356868149</v>
+        <v>2.247966106089669</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09841972257903492</v>
+        <v>0.4020606919227649</v>
       </c>
       <c r="C4">
-        <v>1.321951009708453</v>
+        <v>1.506888104533207</v>
       </c>
       <c r="D4">
-        <v>3.706477144602156</v>
+        <v>4.559370358069133</v>
       </c>
       <c r="E4">
-        <v>1.925221323537155</v>
+        <v>2.135268216891998</v>
       </c>
       <c r="F4">
-        <v>1.942628934146926</v>
+        <v>2.123788960030735</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3286888119229458</v>
+        <v>0.1019088716869291</v>
       </c>
       <c r="C5">
-        <v>1.355285765321783</v>
+        <v>1.510897065334748</v>
       </c>
       <c r="D5">
-        <v>3.906105706609585</v>
+        <v>4.536451325651763</v>
       </c>
       <c r="E5">
-        <v>1.976387033606926</v>
+        <v>2.129894674778958</v>
       </c>
       <c r="F5">
-        <v>1.969487079966377</v>
+        <v>2.155266318831541</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1758242421875162</v>
+        <v>0.3653246424028117</v>
       </c>
       <c r="C6">
-        <v>1.38590038373524</v>
+        <v>1.548561036450066</v>
       </c>
       <c r="D6">
-        <v>4.013282287792838</v>
+        <v>4.792308178577767</v>
       </c>
       <c r="E6">
-        <v>2.003317819965878</v>
+        <v>2.189134116169626</v>
       </c>
       <c r="F6">
-        <v>2.01716170490405</v>
+        <v>2.187409619450435</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3886596252776647</v>
+        <v>0.1349934622835307</v>
       </c>
       <c r="C7">
-        <v>1.341425932669102</v>
+        <v>1.582982358002176</v>
       </c>
       <c r="D7">
-        <v>3.575002999449235</v>
+        <v>4.917780729374886</v>
       </c>
       <c r="E7">
-        <v>1.890767833301919</v>
+        <v>2.217606982622233</v>
       </c>
       <c r="F7">
-        <v>1.870837887007969</v>
+        <v>2.244026807729286</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1263763876690497</v>
+        <v>0.3870259576278534</v>
       </c>
       <c r="C8">
-        <v>1.411360266901308</v>
+        <v>1.497747264846744</v>
       </c>
       <c r="D8">
-        <v>4.034073368543205</v>
+        <v>4.326038897300351</v>
       </c>
       <c r="E8">
-        <v>2.00850027845236</v>
+        <v>2.079913194655092</v>
       </c>
       <c r="F8">
-        <v>2.027171153542608</v>
+        <v>2.072575988579108</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4927478854388472</v>
+        <v>0.02232700200142348</v>
       </c>
       <c r="C9">
-        <v>1.400784718790886</v>
+        <v>1.601898111008815</v>
       </c>
       <c r="D9">
-        <v>4.048194332731589</v>
+        <v>4.9523141292121</v>
       </c>
       <c r="E9">
-        <v>2.012012508095213</v>
+        <v>2.225379547226068</v>
       </c>
       <c r="F9">
-        <v>1.973294551155114</v>
+        <v>2.257754918163958</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2097999035901463</v>
+        <v>0.4526287886684112</v>
       </c>
       <c r="C10">
-        <v>1.453401524484553</v>
+        <v>1.583235315248334</v>
       </c>
       <c r="D10">
-        <v>3.844298923870199</v>
+        <v>4.924710385845067</v>
       </c>
       <c r="E10">
-        <v>1.960688380102815</v>
+        <v>2.219168850233138</v>
       </c>
       <c r="F10">
-        <v>1.97250243373573</v>
+        <v>2.205190002309727</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.6126507335481286</v>
+        <v>0.06611821871031362</v>
       </c>
       <c r="C11">
-        <v>1.379826743076134</v>
+        <v>1.645663897126419</v>
       </c>
       <c r="D11">
-        <v>3.871268613803817</v>
+        <v>4.676326697265005</v>
       </c>
       <c r="E11">
-        <v>1.967553967189672</v>
+        <v>2.162481606225821</v>
       </c>
       <c r="F11">
-        <v>1.892404349385141</v>
+        <v>2.194983752700733</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3349892545614097</v>
+        <v>-0.04910075227565046</v>
       </c>
       <c r="C2">
-        <v>1.605491820351044</v>
+        <v>0.4375210186340867</v>
       </c>
       <c r="D2">
-        <v>4.859283619025187</v>
+        <v>0.3955505643232713</v>
       </c>
       <c r="E2">
-        <v>2.20437828401234</v>
+        <v>0.6289281074361929</v>
       </c>
       <c r="F2">
-        <v>2.205186593348543</v>
+        <v>0.6346088977812401</v>
       </c>
       <c r="G2">
         <v>42</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04710882026988346</v>
+        <v>-0.06125269200380762</v>
       </c>
       <c r="C3">
-        <v>1.657196964163514</v>
+        <v>0.3455007751143618</v>
       </c>
       <c r="D3">
-        <v>4.932318376681804</v>
+        <v>0.2540487818455714</v>
       </c>
       <c r="E3">
-        <v>2.220882341926696</v>
+        <v>0.5040325206229965</v>
       </c>
       <c r="F3">
-        <v>2.247966106089669</v>
+        <v>0.5065119068758943</v>
       </c>
       <c r="G3">
         <v>41</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4020606919227649</v>
+        <v>-0.04654105468418827</v>
       </c>
       <c r="C4">
-        <v>1.506888104533207</v>
+        <v>0.3633367171711409</v>
       </c>
       <c r="D4">
-        <v>4.559370358069133</v>
+        <v>0.2427300470720377</v>
       </c>
       <c r="E4">
-        <v>2.135268216891998</v>
+        <v>0.492676412132789</v>
       </c>
       <c r="F4">
-        <v>2.123788960030735</v>
+        <v>0.4967215360855629</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1019088716869291</v>
+        <v>-0.005319444470540036</v>
       </c>
       <c r="C5">
-        <v>1.510897065334748</v>
+        <v>0.2796121403533299</v>
       </c>
       <c r="D5">
-        <v>4.536451325651763</v>
+        <v>0.1358258888745601</v>
       </c>
       <c r="E5">
-        <v>2.129894674778958</v>
+        <v>0.3685456401513387</v>
       </c>
       <c r="F5">
-        <v>2.155266318831541</v>
+        <v>0.3733245414345593</v>
       </c>
       <c r="G5">
         <v>39</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3653246424028117</v>
+        <v>-0.001502770379548121</v>
       </c>
       <c r="C6">
-        <v>1.548561036450066</v>
+        <v>0.3155651165712501</v>
       </c>
       <c r="D6">
-        <v>4.792308178577767</v>
+        <v>0.1586090853150457</v>
       </c>
       <c r="E6">
-        <v>2.189134116169626</v>
+        <v>0.3982575615290257</v>
       </c>
       <c r="F6">
-        <v>2.187409619450435</v>
+        <v>0.4036006664961421</v>
       </c>
       <c r="G6">
         <v>38</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1349934622835307</v>
+        <v>0.01932042373890687</v>
       </c>
       <c r="C7">
-        <v>1.582982358002176</v>
+        <v>0.3610547447744856</v>
       </c>
       <c r="D7">
-        <v>4.917780729374886</v>
+        <v>0.2393424956067249</v>
       </c>
       <c r="E7">
-        <v>2.217606982622233</v>
+        <v>0.489226425703605</v>
       </c>
       <c r="F7">
-        <v>2.244026807729286</v>
+        <v>0.4955877829751237</v>
       </c>
       <c r="G7">
         <v>37</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3870259576278534</v>
+        <v>0.02166446029533049</v>
       </c>
       <c r="C8">
-        <v>1.497747264846744</v>
+        <v>0.3595736587050082</v>
       </c>
       <c r="D8">
-        <v>4.326038897300351</v>
+        <v>0.2180478825328667</v>
       </c>
       <c r="E8">
-        <v>2.079913194655092</v>
+        <v>0.4669559749407504</v>
       </c>
       <c r="F8">
-        <v>2.072575988579108</v>
+        <v>0.4730698291236335</v>
       </c>
       <c r="G8">
         <v>36</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02232700200142348</v>
+        <v>0.0414398717178615</v>
       </c>
       <c r="C9">
-        <v>1.601898111008815</v>
+        <v>0.4033793597299766</v>
       </c>
       <c r="D9">
-        <v>4.9523141292121</v>
+        <v>0.2890710742414736</v>
       </c>
       <c r="E9">
-        <v>2.225379547226068</v>
+        <v>0.5376533030136369</v>
       </c>
       <c r="F9">
-        <v>2.257754918163958</v>
+        <v>0.5438799444344266</v>
       </c>
       <c r="G9">
         <v>35</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4526287886684112</v>
+        <v>0.03625850861100074</v>
       </c>
       <c r="C10">
-        <v>1.583235315248334</v>
+        <v>0.3813159882465533</v>
       </c>
       <c r="D10">
-        <v>4.924710385845067</v>
+        <v>0.2498016057605106</v>
       </c>
       <c r="E10">
-        <v>2.219168850233138</v>
+        <v>0.4998015663846108</v>
       </c>
       <c r="F10">
-        <v>2.205190002309727</v>
+        <v>0.505981060091987</v>
       </c>
       <c r="G10">
         <v>34</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06611821871031362</v>
+        <v>0.0634991211652437</v>
       </c>
       <c r="C11">
-        <v>1.645663897126419</v>
+        <v>0.3981743024249875</v>
       </c>
       <c r="D11">
-        <v>4.676326697265005</v>
+        <v>0.2986187589914779</v>
       </c>
       <c r="E11">
-        <v>2.162481606225821</v>
+        <v>0.5464602080586271</v>
       </c>
       <c r="F11">
-        <v>2.194983752700733</v>
+        <v>0.5511737044676157</v>
       </c>
       <c r="G11">
         <v>33</v>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.04910075227565046</v>
+        <v>0.2011505038214305</v>
       </c>
       <c r="C2">
-        <v>0.4375210186340867</v>
+        <v>1.831162888379733</v>
       </c>
       <c r="D2">
-        <v>0.3955505643232713</v>
+        <v>5.606418433192214</v>
       </c>
       <c r="E2">
-        <v>0.6289281074361929</v>
+        <v>2.367787666407656</v>
       </c>
       <c r="F2">
-        <v>0.6346088977812401</v>
+        <v>2.38270351621109</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06125269200380762</v>
+        <v>-0.1088417725019823</v>
       </c>
       <c r="C3">
-        <v>0.3455007751143618</v>
+        <v>1.857027656740065</v>
       </c>
       <c r="D3">
-        <v>0.2540487818455714</v>
+        <v>5.611761966788237</v>
       </c>
       <c r="E3">
-        <v>0.5040325206229965</v>
+        <v>2.368915778745255</v>
       </c>
       <c r="F3">
-        <v>0.5065119068758943</v>
+        <v>2.390439169655512</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.04654105468418827</v>
+        <v>0.2647668497699802</v>
       </c>
       <c r="C4">
-        <v>0.3633367171711409</v>
+        <v>1.70436734373276</v>
       </c>
       <c r="D4">
-        <v>0.2427300470720377</v>
+        <v>5.093964917022694</v>
       </c>
       <c r="E4">
-        <v>0.492676412132789</v>
+        <v>2.256981372768215</v>
       </c>
       <c r="F4">
-        <v>0.4967215360855629</v>
+        <v>2.264625190576031</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.005319444470540036</v>
+        <v>0.02918659729334675</v>
       </c>
       <c r="C5">
-        <v>0.2796121403533299</v>
+        <v>1.699897465629806</v>
       </c>
       <c r="D5">
-        <v>0.1358258888745601</v>
+        <v>4.92493289209014</v>
       </c>
       <c r="E5">
-        <v>0.3685456401513387</v>
+        <v>2.219218982455346</v>
       </c>
       <c r="F5">
-        <v>0.3733245414345593</v>
+        <v>2.242509468478655</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.001502770379548121</v>
+        <v>0.2598537466771387</v>
       </c>
       <c r="C6">
-        <v>0.3155651165712501</v>
+        <v>1.778557183867834</v>
       </c>
       <c r="D6">
-        <v>0.1586090853150457</v>
+        <v>5.424263086057175</v>
       </c>
       <c r="E6">
-        <v>0.3982575615290257</v>
+        <v>2.329004741527414</v>
       </c>
       <c r="F6">
-        <v>0.4036006664961421</v>
+        <v>2.339484978954009</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01932042373890687</v>
+        <v>0.0866664478830151</v>
       </c>
       <c r="C7">
-        <v>0.3610547447744856</v>
+        <v>1.819987475692422</v>
       </c>
       <c r="D7">
-        <v>0.2393424956067249</v>
+        <v>5.629107254141546</v>
       </c>
       <c r="E7">
-        <v>0.489226425703605</v>
+        <v>2.372573972322369</v>
       </c>
       <c r="F7">
-        <v>0.4955877829751237</v>
+        <v>2.397190134413542</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.02166446029533049</v>
+        <v>0.31532128808607</v>
       </c>
       <c r="C8">
-        <v>0.3595736587050082</v>
+        <v>1.709693465785397</v>
       </c>
       <c r="D8">
-        <v>0.2180478825328667</v>
+        <v>4.913699006851471</v>
       </c>
       <c r="E8">
-        <v>0.4669559749407504</v>
+        <v>2.216686492684852</v>
       </c>
       <c r="F8">
-        <v>0.4730698291236335</v>
+        <v>2.218938204032733</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0414398717178615</v>
+        <v>0.04114813685194464</v>
       </c>
       <c r="C9">
-        <v>0.4033793597299766</v>
+        <v>1.807961608101199</v>
       </c>
       <c r="D9">
-        <v>0.2890710742414736</v>
+        <v>5.315196701504934</v>
       </c>
       <c r="E9">
-        <v>0.5376533030136369</v>
+        <v>2.305471036795937</v>
       </c>
       <c r="F9">
-        <v>0.5438799444344266</v>
+        <v>2.331753284961301</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03625850861100074</v>
+        <v>0.4060028782411715</v>
       </c>
       <c r="C10">
-        <v>0.3813159882465533</v>
+        <v>1.842179574410668</v>
       </c>
       <c r="D10">
-        <v>0.2498016057605106</v>
+        <v>5.639651418059248</v>
       </c>
       <c r="E10">
-        <v>0.4998015663846108</v>
+        <v>2.374795026535816</v>
       </c>
       <c r="F10">
-        <v>0.505981060091987</v>
+        <v>2.367523130472429</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0634991211652437</v>
+        <v>0.1000955268392197</v>
       </c>
       <c r="C11">
-        <v>0.3981743024249875</v>
+        <v>1.911941050400914</v>
       </c>
       <c r="D11">
-        <v>0.2986187589914779</v>
+        <v>5.487513789220115</v>
       </c>
       <c r="E11">
-        <v>0.5464602080586271</v>
+        <v>2.342544298240722</v>
       </c>
       <c r="F11">
-        <v>0.5511737044676157</v>
+        <v>2.368774388965271</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0866664478830151</v>
+        <v>0.09851898182174161</v>
       </c>
       <c r="C7">
-        <v>1.819987475692422</v>
+        <v>1.540035768533897</v>
       </c>
       <c r="D7">
-        <v>5.629107254141546</v>
+        <v>4.199063518274832</v>
       </c>
       <c r="E7">
-        <v>2.372573972322369</v>
+        <v>2.049161662308475</v>
       </c>
       <c r="F7">
-        <v>2.397190134413542</v>
+        <v>2.074266956696792</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.31532128808607</v>
+        <v>0.3078469792503876</v>
       </c>
       <c r="C8">
-        <v>1.709693465785397</v>
+        <v>1.619327053205559</v>
       </c>
       <c r="D8">
-        <v>4.913699006851471</v>
+        <v>4.192265333528787</v>
       </c>
       <c r="E8">
-        <v>2.216686492684852</v>
+        <v>2.047502218198746</v>
       </c>
       <c r="F8">
-        <v>2.218938204032733</v>
+        <v>2.052148847503259</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04114813685194464</v>
+        <v>1.149512620956961</v>
       </c>
       <c r="C9">
-        <v>1.807961608101199</v>
+        <v>1.619587756671262</v>
       </c>
       <c r="D9">
-        <v>5.315196701504934</v>
+        <v>4.367097144185886</v>
       </c>
       <c r="E9">
-        <v>2.305471036795937</v>
+        <v>2.08976006856909</v>
       </c>
       <c r="F9">
-        <v>2.331753284961301</v>
+        <v>1.790535902856296</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4060028782411715</v>
+        <v>0.8237816712625872</v>
       </c>
       <c r="C10">
-        <v>1.842179574410668</v>
+        <v>1.495310396438245</v>
       </c>
       <c r="D10">
-        <v>5.639651418059248</v>
+        <v>3.378278017657149</v>
       </c>
       <c r="E10">
-        <v>2.374795026535816</v>
+        <v>1.838009253963959</v>
       </c>
       <c r="F10">
-        <v>2.367523130472429</v>
+        <v>1.710156013466232</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1000955268392197</v>
+        <v>0.8526019529410073</v>
       </c>
       <c r="C11">
-        <v>1.911941050400914</v>
+        <v>1.762719545188964</v>
       </c>
       <c r="D11">
-        <v>5.487513789220115</v>
+        <v>4.112577759476549</v>
       </c>
       <c r="E11">
-        <v>2.342544298240722</v>
+        <v>2.027949151107233</v>
       </c>
       <c r="F11">
-        <v>2.368774388965271</v>
+        <v>2.05719702183509</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
